--- a/INPUT_OUTPUT_FILES/3D_CMCC_FEM_Specie_parameters_template.xlsx
+++ b/INPUT_OUTPUT_FILES/3D_CMCC_FEM_Specie_parameters_template.xlsx
@@ -482,6 +482,9 @@
     <t xml:space="preserve">Leaf litter labile fraction (ratio)</t>
   </si>
   <si>
+    <t xml:space="preserve">used since 5.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">LEAF_LITT_CEL_FRAC</t>
   </si>
   <si>
@@ -516,9 +519,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dead wood litter cellulose fraction (ratio)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">used since 5.6</t>
   </si>
   <si>
     <t xml:space="preserve">DEADWOOD_LIGN_FRAC</t>
@@ -1183,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E71" activeCellId="0" sqref="E71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2464,7 +2464,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B63" s="12"/>
@@ -2475,7 +2475,7 @@
         <v>152</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>14</v>
@@ -2488,18 +2488,18 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="25" t="s">
-        <v>153</v>
+      <c r="A64" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>14</v>
@@ -2512,18 +2512,18 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="25" t="s">
-        <v>155</v>
+      <c r="A65" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>14</v>
@@ -2536,18 +2536,18 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="25" t="s">
-        <v>157</v>
+      <c r="A66" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>14</v>
@@ -2560,18 +2560,18 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="25" t="s">
-        <v>159</v>
+      <c r="A67" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>14</v>
@@ -2584,18 +2584,18 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="25" t="s">
-        <v>161</v>
+      <c r="A68" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>14</v>
@@ -2609,17 +2609,17 @@
     </row>
     <row r="69" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>14</v>
@@ -2643,7 +2643,7 @@
         <v>167</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>14</v>
